--- a/heart.xlsx
+++ b/heart.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\RWork\Assignment\MLR_Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F13B89-0010-4220-93ED-5EFA6182B00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C96007A-74D7-488A-B1A2-2CDD61BFFCF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FBE4C71E-828B-4233-B1C9-C19031279D0E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{FBE4C71E-828B-4233-B1C9-C19031279D0E}"/>
   </bookViews>
   <sheets>
     <sheet name="heart" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">heart!$A$1:$H$304</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -52,9 +55,6 @@
     <t>ST-T waze abnormality</t>
   </si>
   <si>
-    <t>showing probable or definite left ventricular hypertrophy</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
@@ -76,7 +76,10 @@
     <t>exercise_induced_angina</t>
   </si>
   <si>
-    <t>CVD</t>
+    <t>CHD</t>
+  </si>
+  <si>
+    <t>left ventricular hypertrophy</t>
   </si>
 </sst>
 </file>
@@ -940,13 +943,14 @@
   <dimension ref="A1:H304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="F308" sqref="F308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="16.77734375" customWidth="1"/>
     <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" customWidth="1"/>
     <col min="7" max="7" width="21.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -955,25 +959,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>17</v>
-      </c>
-      <c r="H1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -996,10 +1000,10 @@
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1022,10 +1026,10 @@
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1048,10 +1052,10 @@
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1074,10 +1078,10 @@
         <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1100,10 +1104,10 @@
         <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1126,10 +1130,10 @@
         <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1152,10 +1156,10 @@
         <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1178,10 +1182,10 @@
         <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1204,10 +1208,10 @@
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1230,10 +1234,10 @@
         <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1256,10 +1260,10 @@
         <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1282,10 +1286,10 @@
         <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1308,10 +1312,10 @@
         <v>9</v>
       </c>
       <c r="G14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1334,10 +1338,10 @@
         <v>8</v>
       </c>
       <c r="G15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1360,10 +1364,10 @@
         <v>8</v>
       </c>
       <c r="G16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1386,10 +1390,10 @@
         <v>9</v>
       </c>
       <c r="G17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1412,10 +1416,10 @@
         <v>9</v>
       </c>
       <c r="G18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -1438,10 +1442,10 @@
         <v>9</v>
       </c>
       <c r="G19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1464,10 +1468,10 @@
         <v>9</v>
       </c>
       <c r="G20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -1490,10 +1494,10 @@
         <v>9</v>
       </c>
       <c r="G21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -1516,10 +1520,10 @@
         <v>9</v>
       </c>
       <c r="G22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1542,10 +1546,10 @@
         <v>9</v>
       </c>
       <c r="G23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1568,10 +1572,10 @@
         <v>9</v>
       </c>
       <c r="G24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -1594,10 +1598,10 @@
         <v>9</v>
       </c>
       <c r="G25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1620,10 +1624,10 @@
         <v>9</v>
       </c>
       <c r="G26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1646,10 +1650,10 @@
         <v>9</v>
       </c>
       <c r="G27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1672,10 +1676,10 @@
         <v>9</v>
       </c>
       <c r="G28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -1698,10 +1702,10 @@
         <v>9</v>
       </c>
       <c r="G29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1724,10 +1728,10 @@
         <v>8</v>
       </c>
       <c r="G30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -1750,10 +1754,10 @@
         <v>8</v>
       </c>
       <c r="G31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -1776,10 +1780,10 @@
         <v>9</v>
       </c>
       <c r="G32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -1802,10 +1806,10 @@
         <v>9</v>
       </c>
       <c r="G33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -1828,10 +1832,10 @@
         <v>8</v>
       </c>
       <c r="G34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -1854,10 +1858,10 @@
         <v>8</v>
       </c>
       <c r="G35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -1880,10 +1884,10 @@
         <v>8</v>
       </c>
       <c r="G36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -1906,10 +1910,10 @@
         <v>8</v>
       </c>
       <c r="G37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -1932,10 +1936,10 @@
         <v>9</v>
       </c>
       <c r="G38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -1958,10 +1962,10 @@
         <v>8</v>
       </c>
       <c r="G39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -1984,10 +1988,10 @@
         <v>9</v>
       </c>
       <c r="G40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -2010,10 +2014,10 @@
         <v>8</v>
       </c>
       <c r="G41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -2036,10 +2040,10 @@
         <v>8</v>
       </c>
       <c r="G42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -2062,10 +2066,10 @@
         <v>8</v>
       </c>
       <c r="G43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -2088,10 +2092,10 @@
         <v>8</v>
       </c>
       <c r="G44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -2114,10 +2118,10 @@
         <v>8</v>
       </c>
       <c r="G45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -2140,10 +2144,10 @@
         <v>8</v>
       </c>
       <c r="G46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -2166,10 +2170,10 @@
         <v>9</v>
       </c>
       <c r="G47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -2192,10 +2196,10 @@
         <v>8</v>
       </c>
       <c r="G48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -2218,10 +2222,10 @@
         <v>8</v>
       </c>
       <c r="G49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -2244,10 +2248,10 @@
         <v>8</v>
       </c>
       <c r="G50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -2270,10 +2274,10 @@
         <v>8</v>
       </c>
       <c r="G51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -2296,10 +2300,10 @@
         <v>8</v>
       </c>
       <c r="G52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -2322,10 +2326,10 @@
         <v>8</v>
       </c>
       <c r="G53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -2348,10 +2352,10 @@
         <v>9</v>
       </c>
       <c r="G54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -2374,10 +2378,10 @@
         <v>9</v>
       </c>
       <c r="G55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -2400,10 +2404,10 @@
         <v>8</v>
       </c>
       <c r="G56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -2426,10 +2430,10 @@
         <v>9</v>
       </c>
       <c r="G57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -2452,10 +2456,10 @@
         <v>8</v>
       </c>
       <c r="G58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -2478,10 +2482,10 @@
         <v>8</v>
       </c>
       <c r="G59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -2504,10 +2508,10 @@
         <v>8</v>
       </c>
       <c r="G60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -2530,10 +2534,10 @@
         <v>8</v>
       </c>
       <c r="G61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -2556,10 +2560,10 @@
         <v>8</v>
       </c>
       <c r="G62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -2582,10 +2586,10 @@
         <v>9</v>
       </c>
       <c r="G63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
@@ -2608,10 +2612,10 @@
         <v>8</v>
       </c>
       <c r="G64" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -2634,10 +2638,10 @@
         <v>9</v>
       </c>
       <c r="G65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -2660,10 +2664,10 @@
         <v>8</v>
       </c>
       <c r="G66" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -2686,10 +2690,10 @@
         <v>9</v>
       </c>
       <c r="G67" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -2712,10 +2716,10 @@
         <v>9</v>
       </c>
       <c r="G68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -2738,10 +2742,10 @@
         <v>8</v>
       </c>
       <c r="G69" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
@@ -2764,10 +2768,10 @@
         <v>9</v>
       </c>
       <c r="G70" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -2790,10 +2794,10 @@
         <v>9</v>
       </c>
       <c r="G71" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -2816,10 +2820,10 @@
         <v>8</v>
       </c>
       <c r="G72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
@@ -2842,10 +2846,10 @@
         <v>9</v>
       </c>
       <c r="G73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
@@ -2868,10 +2872,10 @@
         <v>8</v>
       </c>
       <c r="G74" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
@@ -2894,10 +2898,10 @@
         <v>8</v>
       </c>
       <c r="G75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
@@ -2920,10 +2924,10 @@
         <v>9</v>
       </c>
       <c r="G76" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
@@ -2946,10 +2950,10 @@
         <v>8</v>
       </c>
       <c r="G77" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
@@ -2972,10 +2976,10 @@
         <v>8</v>
       </c>
       <c r="G78" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
@@ -2998,10 +3002,10 @@
         <v>9</v>
       </c>
       <c r="G79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
@@ -3024,10 +3028,10 @@
         <v>9</v>
       </c>
       <c r="G80" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
@@ -3050,10 +3054,10 @@
         <v>8</v>
       </c>
       <c r="G81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
@@ -3076,10 +3080,10 @@
         <v>9</v>
       </c>
       <c r="G82" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
@@ -3102,10 +3106,10 @@
         <v>8</v>
       </c>
       <c r="G83" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
@@ -3128,10 +3132,10 @@
         <v>9</v>
       </c>
       <c r="G84" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
@@ -3154,10 +3158,10 @@
         <v>9</v>
       </c>
       <c r="G85" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
@@ -3180,10 +3184,10 @@
         <v>8</v>
       </c>
       <c r="G86" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H86" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
@@ -3206,10 +3210,10 @@
         <v>8</v>
       </c>
       <c r="G87" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
@@ -3232,10 +3236,10 @@
         <v>9</v>
       </c>
       <c r="G88" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H88" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
@@ -3258,10 +3262,10 @@
         <v>9</v>
       </c>
       <c r="G89" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H89" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
@@ -3284,10 +3288,10 @@
         <v>9</v>
       </c>
       <c r="G90" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H90" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
@@ -3310,10 +3314,10 @@
         <v>8</v>
       </c>
       <c r="G91" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
@@ -3336,10 +3340,10 @@
         <v>9</v>
       </c>
       <c r="G92" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
@@ -3362,10 +3366,10 @@
         <v>9</v>
       </c>
       <c r="G93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
@@ -3388,10 +3392,10 @@
         <v>9</v>
       </c>
       <c r="G94" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
@@ -3414,10 +3418,10 @@
         <v>8</v>
       </c>
       <c r="G95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
@@ -3440,10 +3444,10 @@
         <v>9</v>
       </c>
       <c r="G96" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
@@ -3466,10 +3470,10 @@
         <v>8</v>
       </c>
       <c r="G97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
@@ -3492,10 +3496,10 @@
         <v>8</v>
       </c>
       <c r="G98" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
@@ -3518,10 +3522,10 @@
         <v>9</v>
       </c>
       <c r="G99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
@@ -3544,10 +3548,10 @@
         <v>9</v>
       </c>
       <c r="G100" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H100" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
@@ -3570,10 +3574,10 @@
         <v>8</v>
       </c>
       <c r="G101" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H101" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
@@ -3596,10 +3600,10 @@
         <v>8</v>
       </c>
       <c r="G102" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H102" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
@@ -3622,10 +3626,10 @@
         <v>8</v>
       </c>
       <c r="G103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H103" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
@@ -3648,10 +3652,10 @@
         <v>9</v>
       </c>
       <c r="G104" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H104" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
@@ -3674,10 +3678,10 @@
         <v>9</v>
       </c>
       <c r="G105" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H105" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
@@ -3700,10 +3704,10 @@
         <v>9</v>
       </c>
       <c r="G106" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H106" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
@@ -3726,10 +3730,10 @@
         <v>8</v>
       </c>
       <c r="G107" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H107" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
@@ -3752,10 +3756,10 @@
         <v>8</v>
       </c>
       <c r="G108" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H108" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
@@ -3778,10 +3782,10 @@
         <v>8</v>
       </c>
       <c r="G109" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H109" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
@@ -3804,10 +3808,10 @@
         <v>9</v>
       </c>
       <c r="G110" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
@@ -3830,10 +3834,10 @@
         <v>8</v>
       </c>
       <c r="G111" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H111" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
@@ -3856,10 +3860,10 @@
         <v>9</v>
       </c>
       <c r="G112" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H112" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
@@ -3882,10 +3886,10 @@
         <v>9</v>
       </c>
       <c r="G113" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H113" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
@@ -3908,10 +3912,10 @@
         <v>9</v>
       </c>
       <c r="G114" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H114" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
@@ -3934,10 +3938,10 @@
         <v>9</v>
       </c>
       <c r="G115" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H115" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
@@ -3960,10 +3964,10 @@
         <v>9</v>
       </c>
       <c r="G116" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H116" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
@@ -3986,10 +3990,10 @@
         <v>9</v>
       </c>
       <c r="G117" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H117" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
@@ -4012,10 +4016,10 @@
         <v>8</v>
       </c>
       <c r="G118" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H118" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
@@ -4038,10 +4042,10 @@
         <v>8</v>
       </c>
       <c r="G119" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H119" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
@@ -4064,10 +4068,10 @@
         <v>9</v>
       </c>
       <c r="G120" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H120" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
@@ -4090,10 +4094,10 @@
         <v>8</v>
       </c>
       <c r="G121" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H121" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
@@ -4116,10 +4120,10 @@
         <v>9</v>
       </c>
       <c r="G122" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H122" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
@@ -4142,10 +4146,10 @@
         <v>8</v>
       </c>
       <c r="G123" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H123" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
@@ -4168,10 +4172,10 @@
         <v>8</v>
       </c>
       <c r="G124" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H124" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
@@ -4194,10 +4198,10 @@
         <v>8</v>
       </c>
       <c r="G125" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H125" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
@@ -4220,10 +4224,10 @@
         <v>9</v>
       </c>
       <c r="G126" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H126" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
@@ -4246,10 +4250,10 @@
         <v>9</v>
       </c>
       <c r="G127" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H127" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
@@ -4272,10 +4276,10 @@
         <v>9</v>
       </c>
       <c r="G128" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H128" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
@@ -4298,10 +4302,10 @@
         <v>9</v>
       </c>
       <c r="G129" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H129" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
@@ -4324,10 +4328,10 @@
         <v>8</v>
       </c>
       <c r="G130" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H130" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
@@ -4350,10 +4354,10 @@
         <v>8</v>
       </c>
       <c r="G131" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H131" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
@@ -4376,10 +4380,10 @@
         <v>9</v>
       </c>
       <c r="G132" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H132" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
@@ -4402,10 +4406,10 @@
         <v>9</v>
       </c>
       <c r="G133" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H133" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
@@ -4428,10 +4432,10 @@
         <v>9</v>
       </c>
       <c r="G134" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H134" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
@@ -4454,10 +4458,10 @@
         <v>9</v>
       </c>
       <c r="G135" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H135" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
@@ -4480,10 +4484,10 @@
         <v>9</v>
       </c>
       <c r="G136" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H136" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
@@ -4506,10 +4510,10 @@
         <v>9</v>
       </c>
       <c r="G137" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H137" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
@@ -4532,10 +4536,10 @@
         <v>9</v>
       </c>
       <c r="G138" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H138" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
@@ -4558,10 +4562,10 @@
         <v>8</v>
       </c>
       <c r="G139" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H139" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
@@ -4584,10 +4588,10 @@
         <v>9</v>
       </c>
       <c r="G140" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H140" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
@@ -4610,10 +4614,10 @@
         <v>9</v>
       </c>
       <c r="G141" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H141" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
@@ -4636,10 +4640,10 @@
         <v>8</v>
       </c>
       <c r="G142" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H142" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
@@ -4662,10 +4666,10 @@
         <v>9</v>
       </c>
       <c r="G143" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H143" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
@@ -4688,10 +4692,10 @@
         <v>9</v>
       </c>
       <c r="G144" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H144" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
@@ -4714,10 +4718,10 @@
         <v>9</v>
       </c>
       <c r="G145" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H145" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
@@ -4737,13 +4741,13 @@
         <v>197</v>
       </c>
       <c r="F146" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G146" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H146" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
@@ -4766,10 +4770,10 @@
         <v>8</v>
       </c>
       <c r="G147" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H147" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
@@ -4792,10 +4796,10 @@
         <v>9</v>
       </c>
       <c r="G148" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H148" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
@@ -4818,10 +4822,10 @@
         <v>9</v>
       </c>
       <c r="G149" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H149" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
@@ -4844,10 +4848,10 @@
         <v>9</v>
       </c>
       <c r="G150" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H150" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
@@ -4870,10 +4874,10 @@
         <v>9</v>
       </c>
       <c r="G151" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H151" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
@@ -4896,10 +4900,10 @@
         <v>8</v>
       </c>
       <c r="G152" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H152" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
@@ -4922,10 +4926,10 @@
         <v>9</v>
       </c>
       <c r="G153" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H153" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
@@ -4948,10 +4952,10 @@
         <v>8</v>
       </c>
       <c r="G154" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H154" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
@@ -4974,10 +4978,10 @@
         <v>8</v>
       </c>
       <c r="G155" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H155" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
@@ -5000,10 +5004,10 @@
         <v>9</v>
       </c>
       <c r="G156" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H156" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
@@ -5026,10 +5030,10 @@
         <v>9</v>
       </c>
       <c r="G157" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H157" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
@@ -5052,10 +5056,10 @@
         <v>9</v>
       </c>
       <c r="G158" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H158" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
@@ -5078,10 +5082,10 @@
         <v>9</v>
       </c>
       <c r="G159" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H159" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
@@ -5104,10 +5108,10 @@
         <v>9</v>
       </c>
       <c r="G160" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H160" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
@@ -5130,10 +5134,10 @@
         <v>8</v>
       </c>
       <c r="G161" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H161" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
@@ -5156,10 +5160,10 @@
         <v>9</v>
       </c>
       <c r="G162" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H162" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
@@ -5182,10 +5186,10 @@
         <v>9</v>
       </c>
       <c r="G163" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H163" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
@@ -5208,10 +5212,10 @@
         <v>9</v>
       </c>
       <c r="G164" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H164" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
@@ -5234,10 +5238,10 @@
         <v>9</v>
       </c>
       <c r="G165" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H165" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
@@ -5260,10 +5264,10 @@
         <v>9</v>
       </c>
       <c r="G166" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H166" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
@@ -5286,10 +5290,10 @@
         <v>8</v>
       </c>
       <c r="G167" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H167" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
@@ -5312,10 +5316,10 @@
         <v>8</v>
       </c>
       <c r="G168" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H168" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
@@ -5338,10 +5342,10 @@
         <v>8</v>
       </c>
       <c r="G169" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H169" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
@@ -5364,10 +5368,10 @@
         <v>8</v>
       </c>
       <c r="G170" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H170" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
@@ -5390,10 +5394,10 @@
         <v>8</v>
       </c>
       <c r="G171" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H171" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
@@ -5416,10 +5420,10 @@
         <v>8</v>
       </c>
       <c r="G172" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H172" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
@@ -5442,10 +5446,10 @@
         <v>9</v>
       </c>
       <c r="G173" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H173" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
@@ -5468,10 +5472,10 @@
         <v>8</v>
       </c>
       <c r="G174" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H174" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
@@ -5494,10 +5498,10 @@
         <v>8</v>
       </c>
       <c r="G175" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H175" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
@@ -5520,10 +5524,10 @@
         <v>8</v>
       </c>
       <c r="G176" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H176" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
@@ -5546,10 +5550,10 @@
         <v>8</v>
       </c>
       <c r="G177" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H177" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
@@ -5572,10 +5576,10 @@
         <v>9</v>
       </c>
       <c r="G178" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H178" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
@@ -5598,10 +5602,10 @@
         <v>9</v>
       </c>
       <c r="G179" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H179" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
@@ -5624,10 +5628,10 @@
         <v>8</v>
       </c>
       <c r="G180" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H180" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
@@ -5650,10 +5654,10 @@
         <v>8</v>
       </c>
       <c r="G181" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H181" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
@@ -5676,10 +5680,10 @@
         <v>9</v>
       </c>
       <c r="G182" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H182" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
@@ -5702,10 +5706,10 @@
         <v>8</v>
       </c>
       <c r="G183" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H183" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
@@ -5728,10 +5732,10 @@
         <v>8</v>
       </c>
       <c r="G184" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H184" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
@@ -5754,10 +5758,10 @@
         <v>8</v>
       </c>
       <c r="G185" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H185" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
@@ -5780,10 +5784,10 @@
         <v>8</v>
       </c>
       <c r="G186" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H186" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
@@ -5806,10 +5810,10 @@
         <v>8</v>
       </c>
       <c r="G187" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H187" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
@@ -5832,10 +5836,10 @@
         <v>9</v>
       </c>
       <c r="G188" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H188" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
@@ -5858,10 +5862,10 @@
         <v>8</v>
       </c>
       <c r="G189" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H189" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
@@ -5884,10 +5888,10 @@
         <v>9</v>
       </c>
       <c r="G190" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H190" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
@@ -5910,10 +5914,10 @@
         <v>8</v>
       </c>
       <c r="G191" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H191" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
@@ -5936,10 +5940,10 @@
         <v>9</v>
       </c>
       <c r="G192" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H192" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
@@ -5962,10 +5966,10 @@
         <v>8</v>
       </c>
       <c r="G193" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H193" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
@@ -5988,10 +5992,10 @@
         <v>9</v>
       </c>
       <c r="G194" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H194" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
@@ -6014,10 +6018,10 @@
         <v>8</v>
       </c>
       <c r="G195" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H195" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
@@ -6040,10 +6044,10 @@
         <v>8</v>
       </c>
       <c r="G196" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H196" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
@@ -6066,10 +6070,10 @@
         <v>8</v>
       </c>
       <c r="G197" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H197" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
@@ -6092,10 +6096,10 @@
         <v>9</v>
       </c>
       <c r="G198" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H198" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
@@ -6118,10 +6122,10 @@
         <v>9</v>
       </c>
       <c r="G199" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H199" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
@@ -6144,10 +6148,10 @@
         <v>9</v>
       </c>
       <c r="G200" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H200" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
@@ -6170,10 +6174,10 @@
         <v>8</v>
       </c>
       <c r="G201" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H201" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
@@ -6196,10 +6200,10 @@
         <v>8</v>
       </c>
       <c r="G202" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H202" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
@@ -6222,10 +6226,10 @@
         <v>8</v>
       </c>
       <c r="G203" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H203" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
@@ -6248,10 +6252,10 @@
         <v>8</v>
       </c>
       <c r="G204" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H204" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
@@ -6274,10 +6278,10 @@
         <v>8</v>
       </c>
       <c r="G205" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H205" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
@@ -6300,10 +6304,10 @@
         <v>8</v>
       </c>
       <c r="G206" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H206" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
@@ -6326,10 +6330,10 @@
         <v>9</v>
       </c>
       <c r="G207" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H207" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
@@ -6352,10 +6356,10 @@
         <v>8</v>
       </c>
       <c r="G208" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H208" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
@@ -6378,10 +6382,10 @@
         <v>8</v>
       </c>
       <c r="G209" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H209" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
@@ -6404,10 +6408,10 @@
         <v>9</v>
       </c>
       <c r="G210" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H210" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
@@ -6430,10 +6434,10 @@
         <v>9</v>
       </c>
       <c r="G211" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H211" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
@@ -6456,10 +6460,10 @@
         <v>8</v>
       </c>
       <c r="G212" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H212" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
@@ -6482,10 +6486,10 @@
         <v>9</v>
       </c>
       <c r="G213" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H213" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
@@ -6508,10 +6512,10 @@
         <v>9</v>
       </c>
       <c r="G214" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H214" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
@@ -6534,10 +6538,10 @@
         <v>8</v>
       </c>
       <c r="G215" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H215" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
@@ -6560,10 +6564,10 @@
         <v>8</v>
       </c>
       <c r="G216" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H216" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
@@ -6586,10 +6590,10 @@
         <v>8</v>
       </c>
       <c r="G217" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H217" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
@@ -6612,10 +6616,10 @@
         <v>9</v>
       </c>
       <c r="G218" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H218" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
@@ -6638,10 +6642,10 @@
         <v>8</v>
       </c>
       <c r="G219" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H219" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
@@ -6664,10 +6668,10 @@
         <v>8</v>
       </c>
       <c r="G220" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H220" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
@@ -6690,10 +6694,10 @@
         <v>8</v>
       </c>
       <c r="G221" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H221" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
@@ -6716,10 +6720,10 @@
         <v>8</v>
       </c>
       <c r="G222" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H222" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
@@ -6742,10 +6746,10 @@
         <v>9</v>
       </c>
       <c r="G223" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H223" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
@@ -6768,10 +6772,10 @@
         <v>8</v>
       </c>
       <c r="G224" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H224" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
@@ -6794,10 +6798,10 @@
         <v>8</v>
       </c>
       <c r="G225" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H225" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
@@ -6820,10 +6824,10 @@
         <v>9</v>
       </c>
       <c r="G226" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H226" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
@@ -6846,10 +6850,10 @@
         <v>9</v>
       </c>
       <c r="G227" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H227" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
@@ -6872,10 +6876,10 @@
         <v>8</v>
       </c>
       <c r="G228" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H228" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
@@ -6898,10 +6902,10 @@
         <v>9</v>
       </c>
       <c r="G229" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H229" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
@@ -6924,10 +6928,10 @@
         <v>8</v>
       </c>
       <c r="G230" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H230" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
@@ -6950,10 +6954,10 @@
         <v>9</v>
       </c>
       <c r="G231" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H231" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
@@ -6976,10 +6980,10 @@
         <v>9</v>
       </c>
       <c r="G232" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H232" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
@@ -7002,10 +7006,10 @@
         <v>8</v>
       </c>
       <c r="G233" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H233" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
@@ -7028,10 +7032,10 @@
         <v>8</v>
       </c>
       <c r="G234" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H234" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
@@ -7054,10 +7058,10 @@
         <v>8</v>
       </c>
       <c r="G235" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H235" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
@@ -7080,10 +7084,10 @@
         <v>8</v>
       </c>
       <c r="G236" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H236" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
@@ -7106,10 +7110,10 @@
         <v>9</v>
       </c>
       <c r="G237" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H237" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
@@ -7132,10 +7136,10 @@
         <v>8</v>
       </c>
       <c r="G238" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H238" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
@@ -7158,10 +7162,10 @@
         <v>8</v>
       </c>
       <c r="G239" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H239" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
@@ -7184,10 +7188,10 @@
         <v>8</v>
       </c>
       <c r="G240" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H240" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
@@ -7210,10 +7214,10 @@
         <v>8</v>
       </c>
       <c r="G241" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H241" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
@@ -7236,10 +7240,10 @@
         <v>9</v>
       </c>
       <c r="G242" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H242" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
@@ -7262,10 +7266,10 @@
         <v>9</v>
       </c>
       <c r="G243" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H243" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
@@ -7288,10 +7292,10 @@
         <v>8</v>
       </c>
       <c r="G244" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H244" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
@@ -7314,10 +7318,10 @@
         <v>9</v>
       </c>
       <c r="G245" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H245" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
@@ -7340,10 +7344,10 @@
         <v>8</v>
       </c>
       <c r="G246" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H246" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
@@ -7366,10 +7370,10 @@
         <v>8</v>
       </c>
       <c r="G247" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H247" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
@@ -7392,10 +7396,10 @@
         <v>8</v>
       </c>
       <c r="G248" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H248" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
@@ -7418,10 +7422,10 @@
         <v>9</v>
       </c>
       <c r="G249" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H249" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
@@ -7444,10 +7448,10 @@
         <v>8</v>
       </c>
       <c r="G250" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H250" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
@@ -7470,10 +7474,10 @@
         <v>8</v>
       </c>
       <c r="G251" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H251" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
@@ -7496,10 +7500,10 @@
         <v>9</v>
       </c>
       <c r="G252" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H252" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
@@ -7522,10 +7526,10 @@
         <v>8</v>
       </c>
       <c r="G253" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H253" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
@@ -7548,10 +7552,10 @@
         <v>9</v>
       </c>
       <c r="G254" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H254" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
@@ -7574,10 +7578,10 @@
         <v>8</v>
       </c>
       <c r="G255" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H255" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
@@ -7600,10 +7604,10 @@
         <v>8</v>
       </c>
       <c r="G256" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H256" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.3">
@@ -7626,10 +7630,10 @@
         <v>8</v>
       </c>
       <c r="G257" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H257" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
@@ -7652,10 +7656,10 @@
         <v>8</v>
       </c>
       <c r="G258" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H258" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.3">
@@ -7678,10 +7682,10 @@
         <v>8</v>
       </c>
       <c r="G259" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H259" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.3">
@@ -7704,10 +7708,10 @@
         <v>9</v>
       </c>
       <c r="G260" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H260" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.3">
@@ -7730,10 +7734,10 @@
         <v>9</v>
       </c>
       <c r="G261" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H261" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.3">
@@ -7756,10 +7760,10 @@
         <v>9</v>
       </c>
       <c r="G262" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H262" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.3">
@@ -7782,10 +7786,10 @@
         <v>9</v>
       </c>
       <c r="G263" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H263" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.3">
@@ -7808,10 +7812,10 @@
         <v>9</v>
       </c>
       <c r="G264" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H264" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.3">
@@ -7834,10 +7838,10 @@
         <v>9</v>
       </c>
       <c r="G265" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H265" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.3">
@@ -7860,10 +7864,10 @@
         <v>8</v>
       </c>
       <c r="G266" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H266" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.3">
@@ -7886,10 +7890,10 @@
         <v>8</v>
       </c>
       <c r="G267" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H267" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.3">
@@ -7909,13 +7913,13 @@
         <v>327</v>
       </c>
       <c r="F268" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G268" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H268" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.3">
@@ -7938,10 +7942,10 @@
         <v>8</v>
       </c>
       <c r="G269" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H269" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.3">
@@ -7964,10 +7968,10 @@
         <v>8</v>
       </c>
       <c r="G270" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H270" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.3">
@@ -7990,10 +7994,10 @@
         <v>8</v>
       </c>
       <c r="G271" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H271" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
@@ -8016,10 +8020,10 @@
         <v>8</v>
       </c>
       <c r="G272" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H272" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.3">
@@ -8042,10 +8046,10 @@
         <v>9</v>
       </c>
       <c r="G273" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H273" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.3">
@@ -8068,10 +8072,10 @@
         <v>9</v>
       </c>
       <c r="G274" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H274" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.3">
@@ -8094,10 +8098,10 @@
         <v>9</v>
       </c>
       <c r="G275" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H275" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.3">
@@ -8120,10 +8124,10 @@
         <v>8</v>
       </c>
       <c r="G276" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H276" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.3">
@@ -8146,10 +8150,10 @@
         <v>9</v>
       </c>
       <c r="G277" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H277" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.3">
@@ -8172,10 +8176,10 @@
         <v>9</v>
       </c>
       <c r="G278" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H278" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.3">
@@ -8198,10 +8202,10 @@
         <v>9</v>
       </c>
       <c r="G279" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H279" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.3">
@@ -8224,10 +8228,10 @@
         <v>8</v>
       </c>
       <c r="G280" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H280" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.3">
@@ -8250,10 +8254,10 @@
         <v>8</v>
       </c>
       <c r="G281" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H281" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.3">
@@ -8276,10 +8280,10 @@
         <v>9</v>
       </c>
       <c r="G282" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H282" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.3">
@@ -8302,10 +8306,10 @@
         <v>9</v>
       </c>
       <c r="G283" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H283" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.3">
@@ -8328,10 +8332,10 @@
         <v>9</v>
       </c>
       <c r="G284" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H284" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.3">
@@ -8354,10 +8358,10 @@
         <v>9</v>
       </c>
       <c r="G285" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H285" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.3">
@@ -8380,10 +8384,10 @@
         <v>8</v>
       </c>
       <c r="G286" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H286" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.3">
@@ -8406,10 +8410,10 @@
         <v>9</v>
       </c>
       <c r="G287" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H287" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.3">
@@ -8432,10 +8436,10 @@
         <v>9</v>
       </c>
       <c r="G288" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H288" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.3">
@@ -8458,10 +8462,10 @@
         <v>8</v>
       </c>
       <c r="G289" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H289" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.3">
@@ -8484,10 +8488,10 @@
         <v>9</v>
       </c>
       <c r="G290" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H290" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.3">
@@ -8507,13 +8511,13 @@
         <v>205</v>
       </c>
       <c r="F291" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G291" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H291" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.3">
@@ -8536,10 +8540,10 @@
         <v>9</v>
       </c>
       <c r="G292" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H292" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.3">
@@ -8559,13 +8563,13 @@
         <v>318</v>
       </c>
       <c r="F293" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G293" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H293" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.3">
@@ -8588,10 +8592,10 @@
         <v>8</v>
       </c>
       <c r="G294" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H294" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.3">
@@ -8614,10 +8618,10 @@
         <v>8</v>
       </c>
       <c r="G295" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H295" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.3">
@@ -8640,10 +8644,10 @@
         <v>9</v>
       </c>
       <c r="G296" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H296" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.3">
@@ -8666,10 +8670,10 @@
         <v>8</v>
       </c>
       <c r="G297" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H297" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.3">
@@ -8692,10 +8696,10 @@
         <v>9</v>
       </c>
       <c r="G298" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H298" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.3">
@@ -8718,10 +8722,10 @@
         <v>8</v>
       </c>
       <c r="G299" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H299" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.3">
@@ -8744,10 +8748,10 @@
         <v>9</v>
       </c>
       <c r="G300" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H300" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.3">
@@ -8770,10 +8774,10 @@
         <v>9</v>
       </c>
       <c r="G301" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H301" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.3">
@@ -8796,10 +8800,10 @@
         <v>9</v>
       </c>
       <c r="G302" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H302" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.3">
@@ -8822,10 +8826,10 @@
         <v>9</v>
       </c>
       <c r="G303" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H303" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.3">
@@ -8848,13 +8852,14 @@
         <v>8</v>
       </c>
       <c r="G304" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H304" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H304" xr:uid="{29AFEB69-504E-40B8-BCDA-AD2899BD3CE3}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>